--- a/with logs for unschedule with saturday sunday/excel_schedules/room_142_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_142_genetic_schedule.xlsx
@@ -546,7 +546,21 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>EL 316 - Electronics
 2B
@@ -554,27 +568,13 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-    </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
+      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -704,7 +704,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
